--- a/Code/Results/Cases/Case_3_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.427215879751486</v>
+        <v>1.186047627950188</v>
       </c>
       <c r="C2">
-        <v>0.3016167602717275</v>
+        <v>0.2387000123951566</v>
       </c>
       <c r="D2">
-        <v>0.1127581273051419</v>
+        <v>0.2226785005468557</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6171712353406491</v>
+        <v>1.192283006441741</v>
       </c>
       <c r="G2">
-        <v>0.3815936551236092</v>
+        <v>0.6132414258254641</v>
       </c>
       <c r="H2">
-        <v>0.3024552777555556</v>
+        <v>0.7327866179132911</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06789759750634516</v>
+        <v>0.1981633092984048</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3178624328471642</v>
+        <v>0.3616956605820718</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8219366744452046</v>
+        <v>1.246523001320917</v>
       </c>
       <c r="O2">
-        <v>1.391386683342631</v>
+        <v>2.676150110192594</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.113598160326546</v>
+        <v>1.093298377139433</v>
       </c>
       <c r="C3">
-        <v>0.281151266657119</v>
+        <v>0.2319060946352209</v>
       </c>
       <c r="D3">
-        <v>0.1059520931694991</v>
+        <v>0.2219172207628901</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5893407706684783</v>
+        <v>1.194552975616624</v>
       </c>
       <c r="G3">
-        <v>0.3589417685945193</v>
+        <v>0.6132278077361661</v>
       </c>
       <c r="H3">
-        <v>0.2975457574725624</v>
+        <v>0.7367124965767431</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06983982594487159</v>
+        <v>0.1999377577772492</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2843339381456502</v>
+        <v>0.3538042235259695</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.830221887531259</v>
+        <v>1.252480024247184</v>
       </c>
       <c r="O3">
-        <v>1.332718451104455</v>
+        <v>2.684057865062783</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.921242886423784</v>
+        <v>1.036495716730258</v>
       </c>
       <c r="C4">
-        <v>0.2685753081521653</v>
+        <v>0.2277245149831799</v>
       </c>
       <c r="D4">
-        <v>0.1018690727165179</v>
+        <v>0.2215245335469049</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5733874291083012</v>
+        <v>1.19659359528567</v>
       </c>
       <c r="G4">
-        <v>0.3458797096546888</v>
+        <v>0.6136372241045507</v>
       </c>
       <c r="H4">
-        <v>0.295064387344226</v>
+        <v>0.7394537970780988</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07114323557963864</v>
+        <v>0.2011021738988532</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2639270649321759</v>
+        <v>0.349085050130995</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8362394767975943</v>
+        <v>1.256596613984257</v>
       </c>
       <c r="O4">
-        <v>1.299595881809779</v>
+        <v>2.690481307476304</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.842889580462042</v>
+        <v>1.013386627025113</v>
       </c>
       <c r="C5">
-        <v>0.2634474934379654</v>
+        <v>0.2260181159400076</v>
       </c>
       <c r="D5">
-        <v>0.1002284235283284</v>
+        <v>0.2213833737355628</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5671581907587893</v>
+        <v>1.197587911280593</v>
       </c>
       <c r="G5">
-        <v>0.34075790698882</v>
+        <v>0.6139090671336476</v>
       </c>
       <c r="H5">
-        <v>0.2941820154644788</v>
+        <v>0.7406541449356254</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07170158717963204</v>
+        <v>0.2015955312009279</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2556529331379807</v>
+        <v>0.3471938874005644</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8389189520609222</v>
+        <v>1.258389766659207</v>
       </c>
       <c r="O5">
-        <v>1.286791556486989</v>
+        <v>2.693493230785222</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.82988053269105</v>
+        <v>1.009551756048239</v>
       </c>
       <c r="C6">
-        <v>0.2625958289081751</v>
+        <v>0.2257346313128181</v>
       </c>
       <c r="D6">
-        <v>0.09995737147855976</v>
+        <v>0.2213610755903659</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5661398692867934</v>
+        <v>1.197762848896822</v>
       </c>
       <c r="G6">
-        <v>0.3399192483539082</v>
+        <v>0.613960546857335</v>
       </c>
       <c r="H6">
-        <v>0.2940431289900403</v>
+        <v>0.7408584915164909</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07179592461219464</v>
+        <v>0.2016785916266386</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2542814514518597</v>
+        <v>0.3468817963103703</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8393774129860248</v>
+        <v>1.258694506788949</v>
       </c>
       <c r="O6">
-        <v>1.284706269662522</v>
+        <v>2.694017174812316</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.920186077005837</v>
+        <v>1.036183901367878</v>
       </c>
       <c r="C7">
-        <v>0.2685061654329246</v>
+        <v>0.2277015112716754</v>
       </c>
       <c r="D7">
-        <v>0.1018468535154042</v>
+        <v>0.2215225533472491</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5733023359363756</v>
+        <v>1.196606345902111</v>
       </c>
       <c r="G7">
-        <v>0.345809836120992</v>
+        <v>0.6136404651916649</v>
       </c>
       <c r="H7">
-        <v>0.2950519725940737</v>
+        <v>0.7394696482453824</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07115065644282126</v>
+        <v>0.2011087511524536</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2638153120343674</v>
+        <v>0.3490594156585729</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8362747015920888</v>
+        <v>1.256620328702681</v>
       </c>
       <c r="O7">
-        <v>1.299420436876602</v>
+        <v>2.690520330723189</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.319025531697037</v>
+        <v>1.154038487284197</v>
       </c>
       <c r="C8">
-        <v>0.2945620366292445</v>
+        <v>0.2363596598053306</v>
       </c>
       <c r="D8">
-        <v>0.1103909417492588</v>
+        <v>0.2224005394045747</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6073315033502098</v>
+        <v>1.192931490516365</v>
       </c>
       <c r="G8">
-        <v>0.3736004179468893</v>
+        <v>0.6131499879294893</v>
       </c>
       <c r="H8">
-        <v>0.3006485992240187</v>
+        <v>0.734071642457792</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06854384971753547</v>
+        <v>0.1987596030585514</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3062624088406949</v>
+        <v>0.3589486196641616</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8245961644229212</v>
+        <v>1.248481845742589</v>
       </c>
       <c r="O8">
-        <v>1.370533910044514</v>
+        <v>2.678551262043214</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.103749773768357</v>
+        <v>1.386239741241013</v>
       </c>
       <c r="C9">
-        <v>0.3456044053842788</v>
+        <v>0.2532517840055277</v>
       </c>
       <c r="D9">
-        <v>0.1279505661819655</v>
+        <v>0.2247125371414427</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.683705390250914</v>
+        <v>1.190854808565767</v>
       </c>
       <c r="G9">
-        <v>0.4353696230998452</v>
+        <v>0.6155062941612357</v>
       </c>
       <c r="H9">
-        <v>0.3161027008076189</v>
+        <v>0.7261083596243196</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06434344483332133</v>
+        <v>0.194746528007439</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3910919877721426</v>
+        <v>0.3793349204256202</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8093961882270975</v>
+        <v>1.236155619766777</v>
       </c>
       <c r="O9">
-        <v>1.534700527905756</v>
+        <v>2.667523649625991</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.683346130384962</v>
+        <v>1.557427720800376</v>
       </c>
       <c r="C10">
-        <v>0.3831176356750916</v>
+        <v>0.2656022257149289</v>
       </c>
       <c r="D10">
-        <v>0.1414073036731907</v>
+        <v>0.2267676642471628</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7466362033371041</v>
+        <v>1.192454414898435</v>
       </c>
       <c r="G10">
-        <v>0.4860033699932416</v>
+        <v>0.6192661537461817</v>
       </c>
       <c r="H10">
-        <v>0.3305536856584155</v>
+        <v>0.7218533694610727</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06185917706842758</v>
+        <v>0.192159024044269</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4546343997984508</v>
+        <v>0.3949098777492566</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8033920989409609</v>
+        <v>1.229304213377944</v>
       </c>
       <c r="O10">
-        <v>1.672883128246724</v>
+        <v>2.667014416375935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.948038868075344</v>
+        <v>1.635418960461777</v>
       </c>
       <c r="C11">
-        <v>0.4001973429072052</v>
+        <v>0.2712061792497593</v>
       </c>
       <c r="D11">
-        <v>0.14766512372222</v>
+        <v>0.2277793219759587</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7769672755200787</v>
+        <v>1.193860484398982</v>
       </c>
       <c r="G11">
-        <v>0.5103714337235488</v>
+        <v>0.6214184548965989</v>
       </c>
       <c r="H11">
-        <v>0.3378867036551298</v>
+        <v>0.7202635614067674</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06087044475024328</v>
+        <v>0.191060062480588</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4838651002963985</v>
+        <v>0.4021232841330118</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8018923569351983</v>
+        <v>1.226664008957499</v>
       </c>
       <c r="O11">
-        <v>1.740151470715546</v>
+        <v>2.668433157287751</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.048450099438696</v>
+        <v>1.664967422387633</v>
       </c>
       <c r="C12">
-        <v>0.4066680566709238</v>
+        <v>0.2733260387963696</v>
       </c>
       <c r="D12">
-        <v>0.1500557233375019</v>
+        <v>0.2281733853198205</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7887174267113437</v>
+        <v>1.194490422172152</v>
       </c>
       <c r="G12">
-        <v>0.5198079999478722</v>
+        <v>0.6222971034433442</v>
       </c>
       <c r="H12">
-        <v>0.3407803780170866</v>
+        <v>0.7197112162682942</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06051732346961458</v>
+        <v>0.1906551317880911</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4949858758148054</v>
+        <v>0.4048730769649183</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8015113846642805</v>
+        <v>1.225732589734093</v>
       </c>
       <c r="O12">
-        <v>1.766310538390741</v>
+        <v>2.669207788392868</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.026816341042831</v>
+        <v>1.658603001965105</v>
       </c>
       <c r="C13">
-        <v>0.4052743243647114</v>
+        <v>0.272869591360319</v>
       </c>
       <c r="D13">
-        <v>0.1495399138602806</v>
+        <v>0.2280880299080366</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7861747373403887</v>
+        <v>1.194350418939109</v>
       </c>
       <c r="G13">
-        <v>0.5177660926059104</v>
+        <v>0.6221050401786954</v>
       </c>
       <c r="H13">
-        <v>0.3401518507316155</v>
+        <v>0.7198279648495287</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06059241166760643</v>
+        <v>0.1907418418977969</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4925884329024797</v>
+        <v>0.4042800523972119</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8015849559073729</v>
+        <v>1.225930149244505</v>
       </c>
       <c r="O13">
-        <v>1.760645339061625</v>
+        <v>2.66903039904895</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.956296019421814</v>
+        <v>1.637849643295738</v>
       </c>
       <c r="C14">
-        <v>0.4007296269685128</v>
+        <v>0.2713806271913484</v>
       </c>
       <c r="D14">
-        <v>0.1478613732019909</v>
+        <v>0.2278115223339086</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.777928551951419</v>
+        <v>1.193910356285357</v>
       </c>
       <c r="G14">
-        <v>0.5111434974941886</v>
+        <v>0.6214894664236681</v>
       </c>
       <c r="H14">
-        <v>0.3381223811534966</v>
+        <v>0.7202171242286965</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06084096085922042</v>
+        <v>0.1910265237330933</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4847789461945382</v>
+        <v>0.4023491470667153</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8018572088033835</v>
+        <v>1.226586011201888</v>
       </c>
       <c r="O14">
-        <v>1.742289533931881</v>
+        <v>2.66849212877753</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.913124359562232</v>
+        <v>1.625139490895322</v>
       </c>
       <c r="C15">
-        <v>0.3979462867464463</v>
+        <v>0.2704682972275521</v>
       </c>
       <c r="D15">
-        <v>0.1468359802477579</v>
+        <v>0.227643580100704</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7729125612397212</v>
+        <v>1.193653499349381</v>
       </c>
       <c r="G15">
-        <v>0.5071146965106124</v>
+        <v>0.62112069685422</v>
       </c>
       <c r="H15">
-        <v>0.3368947213215705</v>
+        <v>0.7204619641065193</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06099600649963932</v>
+        <v>0.1912023607594655</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4800023034641328</v>
+        <v>0.4011687798381303</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.802048620451373</v>
+        <v>1.226996644675651</v>
       </c>
       <c r="O15">
-        <v>1.731137015167008</v>
+        <v>2.668193338926329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.666071065904646</v>
+        <v>1.552332997003987</v>
       </c>
       <c r="C16">
-        <v>0.3820018065519548</v>
+        <v>0.2652356908516538</v>
       </c>
       <c r="D16">
-        <v>0.1410011922353362</v>
+        <v>0.2267030889535846</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7446899118622525</v>
+        <v>1.192376170707476</v>
       </c>
       <c r="G16">
-        <v>0.4844391426638168</v>
+        <v>0.6191343945030212</v>
       </c>
       <c r="H16">
-        <v>0.3300903751843407</v>
+        <v>0.7219642217585829</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06192671872409861</v>
+        <v>0.192232414665952</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4527310645260627</v>
+        <v>0.3944410276949952</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.803515720980073</v>
+        <v>1.229486332586745</v>
       </c>
       <c r="O16">
-        <v>1.66858006819055</v>
+        <v>2.666954913664199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.514796364612153</v>
+        <v>1.507697142864345</v>
       </c>
       <c r="C17">
-        <v>0.3722247600311448</v>
+        <v>0.2620218619301795</v>
       </c>
       <c r="D17">
-        <v>0.1374575453592257</v>
+        <v>0.2261457416964703</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7278260116168696</v>
+        <v>1.191766280834983</v>
       </c>
       <c r="G17">
-        <v>0.4708819875136925</v>
+        <v>0.6180291001211913</v>
       </c>
       <c r="H17">
-        <v>0.3261158647286777</v>
+        <v>0.7229743451282076</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06253455604343827</v>
+        <v>0.1928843176649941</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4360877306541653</v>
+        <v>0.3903464729007737</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8047379898457621</v>
+        <v>1.231135614879364</v>
       </c>
       <c r="O17">
-        <v>1.631368516089935</v>
+        <v>2.666617928957663</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.427882347186312</v>
+        <v>1.48203490606528</v>
       </c>
       <c r="C18">
-        <v>0.3666025921707643</v>
+        <v>0.2601720147549145</v>
       </c>
       <c r="D18">
-        <v>0.1354320784254242</v>
+        <v>0.225832400379872</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7182854499604261</v>
+        <v>1.191479346437347</v>
       </c>
       <c r="G18">
-        <v>0.4632088005703565</v>
+        <v>0.6174349556750087</v>
       </c>
       <c r="H18">
-        <v>0.3239008038732436</v>
+        <v>0.7235878932412447</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06289741402364157</v>
+        <v>0.1932666273878034</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4265451896909269</v>
+        <v>0.3880034804161312</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8055563006381021</v>
+        <v>1.232129101184924</v>
       </c>
       <c r="O18">
-        <v>1.610377042387853</v>
+        <v>2.666579443706894</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.398470239464132</v>
+        <v>1.473348083919404</v>
       </c>
       <c r="C19">
-        <v>0.3646992259362776</v>
+        <v>0.2595454639009205</v>
       </c>
       <c r="D19">
-        <v>0.1347484407190223</v>
+        <v>0.225727552268097</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7150819334068288</v>
+        <v>1.191393164991347</v>
       </c>
       <c r="G19">
-        <v>0.4606316789170961</v>
+        <v>0.6172409297973047</v>
       </c>
       <c r="H19">
-        <v>0.3231627868414222</v>
+        <v>0.7238012223134405</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06302251813866633</v>
+        <v>0.1933973339563941</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4233192998859749</v>
+        <v>0.3872122659220167</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.805852878061458</v>
+        <v>1.232473188633421</v>
       </c>
       <c r="O19">
-        <v>1.603338854456979</v>
+        <v>2.666593091087549</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.530889756219324</v>
+        <v>1.512447568363143</v>
       </c>
       <c r="C20">
-        <v>0.3732653995151196</v>
+        <v>0.2623641192397201</v>
       </c>
       <c r="D20">
-        <v>0.1378334443808598</v>
+        <v>0.2262043244765408</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7296045984491144</v>
+        <v>1.191824596032276</v>
       </c>
       <c r="G20">
-        <v>0.4723121617013391</v>
+        <v>0.6181424554971215</v>
       </c>
       <c r="H20">
-        <v>0.3265315589394646</v>
+        <v>0.7228634471084376</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06246847302552894</v>
+        <v>0.192814160605451</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4378562744383458</v>
+        <v>0.3907810958277196</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8045958752932876</v>
+        <v>1.23095540398225</v>
       </c>
       <c r="O20">
-        <v>1.635286780866579</v>
+        <v>2.666637724059427</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.977004474617615</v>
+        <v>1.64394501969133</v>
       </c>
       <c r="C21">
-        <v>0.4020644259227595</v>
+        <v>0.2718180341483958</v>
       </c>
       <c r="D21">
-        <v>0.1483538233159578</v>
+        <v>0.2278924421232063</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7803433185169837</v>
+        <v>1.194036968020342</v>
       </c>
       <c r="G21">
-        <v>0.5130829034369242</v>
+        <v>0.6216685482024928</v>
       </c>
       <c r="H21">
-        <v>0.3387152516704504</v>
+        <v>0.7201014707339226</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06076737019076006</v>
+        <v>0.1909426012853892</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4870713357250764</v>
+        <v>0.4029158076526045</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8017720862771398</v>
+        <v>1.226391514357488</v>
       </c>
       <c r="O21">
-        <v>1.747662028872099</v>
+        <v>2.668643788786085</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.269618119208417</v>
+        <v>1.729971989852402</v>
       </c>
       <c r="C22">
-        <v>0.4209042084196994</v>
+        <v>0.2779835994066673</v>
       </c>
       <c r="D22">
-        <v>0.1553519771126304</v>
+        <v>0.2290596372161389</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8150552689401422</v>
+        <v>1.196051095813601</v>
       </c>
       <c r="G22">
-        <v>0.5409553263289268</v>
+        <v>0.6243439047073025</v>
       </c>
       <c r="H22">
-        <v>0.3473628292925355</v>
+        <v>0.7185859150801264</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05978018361268767</v>
+        <v>0.1897848363113255</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5195404068058451</v>
+        <v>0.4109527162834041</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8010212661042573</v>
+        <v>1.223807185508264</v>
       </c>
       <c r="O22">
-        <v>1.825130976599922</v>
+        <v>2.671338553702242</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.113338122726759</v>
+        <v>1.684050570441002</v>
       </c>
       <c r="C23">
-        <v>0.4108471057942324</v>
+        <v>0.2746941792368034</v>
       </c>
       <c r="D23">
-        <v>0.1516052726515937</v>
+        <v>0.2284308579783811</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7963801442709268</v>
+        <v>1.194924147436126</v>
       </c>
       <c r="G23">
-        <v>0.5259611632201313</v>
+        <v>0.6228820606029188</v>
       </c>
       <c r="H23">
-        <v>0.3426821327508094</v>
+        <v>0.7193683165391462</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06029533205595072</v>
+        <v>0.1903967756128324</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5021814701301963</v>
+        <v>0.4066536227943942</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.801318412717194</v>
+        <v>1.225150083924589</v>
       </c>
       <c r="O23">
-        <v>1.783397925056562</v>
+        <v>2.669773680499105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.523613762200569</v>
+        <v>1.510299902370377</v>
       </c>
       <c r="C24">
-        <v>0.3727949302501656</v>
+        <v>0.2622093914687014</v>
       </c>
       <c r="D24">
-        <v>0.1376634637050245</v>
+        <v>0.2261778171277058</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7288000188838453</v>
+        <v>1.191798033308004</v>
       </c>
       <c r="G24">
-        <v>0.4716652043295824</v>
+        <v>0.6180910788779954</v>
       </c>
       <c r="H24">
-        <v>0.3263434063176192</v>
+        <v>0.7229134818832534</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06249830747876572</v>
+        <v>0.1928458551813073</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4370566353921106</v>
+        <v>0.3905845684561626</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.804659765914522</v>
+        <v>1.231036736235154</v>
       </c>
       <c r="O24">
-        <v>1.633514085296525</v>
+        <v>2.666628291099357</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.891036495023627</v>
+        <v>1.323314254206025</v>
       </c>
       <c r="C25">
-        <v>0.331797402845396</v>
+        <v>0.2486920509061861</v>
       </c>
       <c r="D25">
-        <v>0.1231075698571402</v>
+        <v>0.2240242338011527</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6619180819840196</v>
+        <v>1.190867625631583</v>
       </c>
       <c r="G25">
-        <v>0.4177992573071094</v>
+        <v>0.6145130122811224</v>
       </c>
       <c r="H25">
-        <v>0.3114059261667137</v>
+        <v>0.7279822179216353</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06537757074377204</v>
+        <v>0.1957687231768919</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3679483176119618</v>
+        <v>0.3737144018835181</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8126370479812053</v>
+        <v>1.239102301335336</v>
       </c>
       <c r="O25">
-        <v>1.487393754363723</v>
+        <v>2.669174022939785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.186047627950188</v>
+        <v>2.427215879751373</v>
       </c>
       <c r="C2">
-        <v>0.2387000123951566</v>
+        <v>0.3016167602717132</v>
       </c>
       <c r="D2">
-        <v>0.2226785005468557</v>
+        <v>0.1127581273050779</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.192283006441741</v>
+        <v>0.6171712353406704</v>
       </c>
       <c r="G2">
-        <v>0.6132414258254641</v>
+        <v>0.3815936551236234</v>
       </c>
       <c r="H2">
-        <v>0.7327866179132911</v>
+        <v>0.3024552777555556</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1981633092984048</v>
+        <v>0.06789759750631852</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3616956605820718</v>
+        <v>0.3178624328471784</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.246523001320917</v>
+        <v>0.8219366744451975</v>
       </c>
       <c r="O2">
-        <v>2.676150110192594</v>
+        <v>1.39138668334266</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.093298377139433</v>
+        <v>2.113598160326603</v>
       </c>
       <c r="C3">
-        <v>0.2319060946352209</v>
+        <v>0.2811512666574316</v>
       </c>
       <c r="D3">
-        <v>0.2219172207628901</v>
+        <v>0.1059520931694919</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.194552975616624</v>
+        <v>0.5893407706684926</v>
       </c>
       <c r="G3">
-        <v>0.6132278077361661</v>
+        <v>0.3589417685944341</v>
       </c>
       <c r="H3">
-        <v>0.7367124965767431</v>
+        <v>0.2975457574726903</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1999377577772492</v>
+        <v>0.06983982594482896</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3538042235259695</v>
+        <v>0.2843339381456929</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.252480024247184</v>
+        <v>0.830221887531323</v>
       </c>
       <c r="O3">
-        <v>2.684057865062783</v>
+        <v>1.33271845110454</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.036495716730258</v>
+        <v>1.92124288642367</v>
       </c>
       <c r="C4">
-        <v>0.2277245149831799</v>
+        <v>0.2685753081525633</v>
       </c>
       <c r="D4">
-        <v>0.2215245335469049</v>
+        <v>0.1018690727167595</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.19659359528567</v>
+        <v>0.5733874291083154</v>
       </c>
       <c r="G4">
-        <v>0.6136372241045507</v>
+        <v>0.3458797096547599</v>
       </c>
       <c r="H4">
-        <v>0.7394537970780988</v>
+        <v>0.2950643873443397</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2011021738988532</v>
+        <v>0.07114323557950719</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.349085050130995</v>
+        <v>0.263927064932119</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.256596613984257</v>
+        <v>0.8362394767975516</v>
       </c>
       <c r="O4">
-        <v>2.690481307476304</v>
+        <v>1.299595881809722</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.013386627025113</v>
+        <v>1.842889580462099</v>
       </c>
       <c r="C5">
-        <v>0.2260181159400076</v>
+        <v>0.2634474934379369</v>
       </c>
       <c r="D5">
-        <v>0.2213833737355628</v>
+        <v>0.1002284235282858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.197587911280593</v>
+        <v>0.5671581907587822</v>
       </c>
       <c r="G5">
-        <v>0.6139090671336476</v>
+        <v>0.34075790698882</v>
       </c>
       <c r="H5">
-        <v>0.7406541449356254</v>
+        <v>0.2941820154645924</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2015955312009279</v>
+        <v>0.07170158717963204</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3471938874005644</v>
+        <v>0.2556529331380517</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.258389766659207</v>
+        <v>0.8389189520609222</v>
       </c>
       <c r="O5">
-        <v>2.693493230785222</v>
+        <v>1.286791556486961</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.009551756048239</v>
+        <v>1.829880532691192</v>
       </c>
       <c r="C6">
-        <v>0.2257346313128181</v>
+        <v>0.2625958289082462</v>
       </c>
       <c r="D6">
-        <v>0.2213610755903659</v>
+        <v>0.09995737147866635</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.197762848896822</v>
+        <v>0.5661398692868005</v>
       </c>
       <c r="G6">
-        <v>0.613960546857335</v>
+        <v>0.339919248353965</v>
       </c>
       <c r="H6">
-        <v>0.7408584915164909</v>
+        <v>0.2940431289900403</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2016785916266386</v>
+        <v>0.07179592461213424</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3468817963103703</v>
+        <v>0.2542814514518454</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.258694506788949</v>
+        <v>0.8393774129860105</v>
       </c>
       <c r="O6">
-        <v>2.694017174812316</v>
+        <v>1.284706269662522</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.036183901367878</v>
+        <v>1.920186077005638</v>
       </c>
       <c r="C7">
-        <v>0.2277015112716754</v>
+        <v>0.2685061654329388</v>
       </c>
       <c r="D7">
-        <v>0.2215225533472491</v>
+        <v>0.1018468535155463</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.196606345902111</v>
+        <v>0.5733023359363685</v>
       </c>
       <c r="G7">
-        <v>0.6136404651916649</v>
+        <v>0.3458098361210347</v>
       </c>
       <c r="H7">
-        <v>0.7394696482453824</v>
+        <v>0.2950519725940524</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2011087511524536</v>
+        <v>0.071150656442871</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3490594156585729</v>
+        <v>0.2638153120344526</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.256620328702681</v>
+        <v>0.8362747015921386</v>
       </c>
       <c r="O7">
-        <v>2.690520330723189</v>
+        <v>1.299420436876574</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.154038487284197</v>
+        <v>2.31902553169698</v>
       </c>
       <c r="C8">
-        <v>0.2363596598053306</v>
+        <v>0.2945620366294719</v>
       </c>
       <c r="D8">
-        <v>0.2224005394045747</v>
+        <v>0.1103909417493796</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.192931490516365</v>
+        <v>0.6073315033502098</v>
       </c>
       <c r="G8">
-        <v>0.6131499879294893</v>
+        <v>0.3736004179468324</v>
       </c>
       <c r="H8">
-        <v>0.734071642457792</v>
+        <v>0.300648599223905</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1987596030585514</v>
+        <v>0.06854384971742178</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3589486196641616</v>
+        <v>0.3062624088406523</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.248481845742589</v>
+        <v>0.8245961644229354</v>
       </c>
       <c r="O8">
-        <v>2.678551262043214</v>
+        <v>1.370533910044543</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.386239741241013</v>
+        <v>3.10374977376847</v>
       </c>
       <c r="C9">
-        <v>0.2532517840055277</v>
+        <v>0.3456044053840657</v>
       </c>
       <c r="D9">
-        <v>0.2247125371414427</v>
+        <v>0.1279505661820011</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.190854808565767</v>
+        <v>0.683705390250914</v>
       </c>
       <c r="G9">
-        <v>0.6155062941612357</v>
+        <v>0.435369623099902</v>
       </c>
       <c r="H9">
-        <v>0.7261083596243196</v>
+        <v>0.3161027008076189</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.194746528007439</v>
+        <v>0.06434344483333732</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3793349204256202</v>
+        <v>0.3910919877720715</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.236155619766777</v>
+        <v>0.8093961882271046</v>
       </c>
       <c r="O9">
-        <v>2.667523649625991</v>
+        <v>1.534700527905727</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.557427720800376</v>
+        <v>3.683346130384791</v>
       </c>
       <c r="C10">
-        <v>0.2656022257149289</v>
+        <v>0.3831176356744379</v>
       </c>
       <c r="D10">
-        <v>0.2267676642471628</v>
+        <v>0.1414073036729775</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.192454414898435</v>
+        <v>0.7466362033371183</v>
       </c>
       <c r="G10">
-        <v>0.6192661537461817</v>
+        <v>0.4860033699932558</v>
       </c>
       <c r="H10">
-        <v>0.7218533694610727</v>
+        <v>0.3305536856584013</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.192159024044269</v>
+        <v>0.06185917706828903</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3949098777492566</v>
+        <v>0.4546343997984508</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.229304213377944</v>
+        <v>0.8033920989408898</v>
       </c>
       <c r="O10">
-        <v>2.667014416375935</v>
+        <v>1.672883128246696</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.635418960461777</v>
+        <v>3.948038868075002</v>
       </c>
       <c r="C11">
-        <v>0.2712061792497593</v>
+        <v>0.4001973429070631</v>
       </c>
       <c r="D11">
-        <v>0.2277793219759587</v>
+        <v>0.1476651237222768</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.193860484398982</v>
+        <v>0.7769672755200787</v>
       </c>
       <c r="G11">
-        <v>0.6214184548965989</v>
+        <v>0.5103714337235203</v>
       </c>
       <c r="H11">
-        <v>0.7202635614067674</v>
+        <v>0.3378867036551298</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.191060062480588</v>
+        <v>0.0608704447502042</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4021232841330118</v>
+        <v>0.4838651002963985</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.226664008957499</v>
+        <v>0.8018923569351841</v>
       </c>
       <c r="O11">
-        <v>2.668433157287751</v>
+        <v>1.740151470715489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.664967422387633</v>
+        <v>4.048450099438924</v>
       </c>
       <c r="C12">
-        <v>0.2733260387963696</v>
+        <v>0.4066680566712648</v>
       </c>
       <c r="D12">
-        <v>0.2281733853198205</v>
+        <v>0.1500557233375304</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.194490422172152</v>
+        <v>0.7887174267113437</v>
       </c>
       <c r="G12">
-        <v>0.6222971034433442</v>
+        <v>0.5198079999478722</v>
       </c>
       <c r="H12">
-        <v>0.7197112162682942</v>
+        <v>0.3407803780170866</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1906551317880911</v>
+        <v>0.06051732346960392</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4048730769649183</v>
+        <v>0.4949858758147485</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.225732589734093</v>
+        <v>0.8015113846642663</v>
       </c>
       <c r="O12">
-        <v>2.669207788392868</v>
+        <v>1.766310538390769</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.658603001965105</v>
+        <v>4.026816341042831</v>
       </c>
       <c r="C13">
-        <v>0.272869591360319</v>
+        <v>0.4052743243644841</v>
       </c>
       <c r="D13">
-        <v>0.2280880299080366</v>
+        <v>0.1495399138603233</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.194350418939109</v>
+        <v>0.7861747373403887</v>
       </c>
       <c r="G13">
-        <v>0.6221050401786954</v>
+        <v>0.5177660926059389</v>
       </c>
       <c r="H13">
-        <v>0.7198279648495287</v>
+        <v>0.3401518507316155</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1907418418977969</v>
+        <v>0.06059241166759932</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4042800523972119</v>
+        <v>0.4925884329024797</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.225930149244505</v>
+        <v>0.8015849559074297</v>
       </c>
       <c r="O13">
-        <v>2.66903039904895</v>
+        <v>1.760645339061654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.637849643295738</v>
+        <v>3.956296019421927</v>
       </c>
       <c r="C14">
-        <v>0.2713806271913484</v>
+        <v>0.4007296269682854</v>
       </c>
       <c r="D14">
-        <v>0.2278115223339086</v>
+        <v>0.1478613732021188</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.193910356285357</v>
+        <v>0.7779285519514048</v>
       </c>
       <c r="G14">
-        <v>0.6214894664236681</v>
+        <v>0.5111434974941602</v>
       </c>
       <c r="H14">
-        <v>0.7202171242286965</v>
+        <v>0.3381223811534966</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1910265237330933</v>
+        <v>0.06084096085923107</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4023491470667153</v>
+        <v>0.4847789461945098</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.226586011201888</v>
+        <v>0.8018572088033125</v>
       </c>
       <c r="O14">
-        <v>2.66849212877753</v>
+        <v>1.742289533931768</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.625139490895322</v>
+        <v>3.913124359562232</v>
       </c>
       <c r="C15">
-        <v>0.2704682972275521</v>
+        <v>0.3979462867464179</v>
       </c>
       <c r="D15">
-        <v>0.227643580100704</v>
+        <v>0.1468359802476868</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.193653499349381</v>
+        <v>0.7729125612397212</v>
       </c>
       <c r="G15">
-        <v>0.62112069685422</v>
+        <v>0.5071146965106124</v>
       </c>
       <c r="H15">
-        <v>0.7204619641065193</v>
+        <v>0.3368947213215705</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1912023607594655</v>
+        <v>0.06099600649967485</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4011687798381303</v>
+        <v>0.480002303464218</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.226996644675651</v>
+        <v>0.8020486204513162</v>
       </c>
       <c r="O15">
-        <v>2.668193338926329</v>
+        <v>1.731137015167008</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.552332997003987</v>
+        <v>3.666071065904646</v>
       </c>
       <c r="C16">
-        <v>0.2652356908516538</v>
+        <v>0.3820018065518695</v>
       </c>
       <c r="D16">
-        <v>0.2267030889535846</v>
+        <v>0.1410011922353931</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.192376170707476</v>
+        <v>0.7446899118622383</v>
       </c>
       <c r="G16">
-        <v>0.6191343945030212</v>
+        <v>0.4844391426637884</v>
       </c>
       <c r="H16">
-        <v>0.7219642217585829</v>
+        <v>0.3300903751843407</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.192232414665952</v>
+        <v>0.06192671872410571</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3944410276949952</v>
+        <v>0.4527310645260059</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.229486332586745</v>
+        <v>0.8035157209800019</v>
       </c>
       <c r="O16">
-        <v>2.666954913664199</v>
+        <v>1.668580068190607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.507697142864345</v>
+        <v>3.514796364611925</v>
       </c>
       <c r="C17">
-        <v>0.2620218619301795</v>
+        <v>0.3722247600309316</v>
       </c>
       <c r="D17">
-        <v>0.2261457416964703</v>
+        <v>0.1374575453591689</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.191766280834983</v>
+        <v>0.7278260116168696</v>
       </c>
       <c r="G17">
-        <v>0.6180291001211913</v>
+        <v>0.4708819875137067</v>
       </c>
       <c r="H17">
-        <v>0.7229743451282076</v>
+        <v>0.3261158647286777</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1928843176649941</v>
+        <v>0.06253455604347025</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3903464729007737</v>
+        <v>0.4360877306541084</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.231135614879364</v>
+        <v>0.8047379898457621</v>
       </c>
       <c r="O17">
-        <v>2.666617928957663</v>
+        <v>1.631368516089935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.48203490606528</v>
+        <v>3.427882347186539</v>
       </c>
       <c r="C18">
-        <v>0.2601720147549145</v>
+        <v>0.3666025921710059</v>
       </c>
       <c r="D18">
-        <v>0.225832400379872</v>
+        <v>0.1354320784255094</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.191479346437347</v>
+        <v>0.7182854499604332</v>
       </c>
       <c r="G18">
-        <v>0.6174349556750087</v>
+        <v>0.4632088005704134</v>
       </c>
       <c r="H18">
-        <v>0.7235878932412447</v>
+        <v>0.3239008038731299</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1932666273878034</v>
+        <v>0.06289741402368776</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3880034804161312</v>
+        <v>0.4265451896909838</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.232129101184924</v>
+        <v>0.8055563006380879</v>
       </c>
       <c r="O18">
-        <v>2.666579443706894</v>
+        <v>1.610377042387881</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.473348083919404</v>
+        <v>3.398470239463904</v>
       </c>
       <c r="C19">
-        <v>0.2595454639009205</v>
+        <v>0.3646992259362207</v>
       </c>
       <c r="D19">
-        <v>0.225727552268097</v>
+        <v>0.1347484407190649</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.191393164991347</v>
+        <v>0.7150819334068217</v>
       </c>
       <c r="G19">
-        <v>0.6172409297973047</v>
+        <v>0.4606316789170677</v>
       </c>
       <c r="H19">
-        <v>0.7238012223134405</v>
+        <v>0.3231627868414364</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1933973339563941</v>
+        <v>0.06302251813870896</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3872122659220167</v>
+        <v>0.4233192998857902</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.232473188633421</v>
+        <v>0.8058528780614722</v>
       </c>
       <c r="O19">
-        <v>2.666593091087549</v>
+        <v>1.603338854456979</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.512447568363143</v>
+        <v>3.530889756219494</v>
       </c>
       <c r="C20">
-        <v>0.2623641192397201</v>
+        <v>0.3732653995155601</v>
       </c>
       <c r="D20">
-        <v>0.2262043244765408</v>
+        <v>0.1378334443807887</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.191824596032276</v>
+        <v>0.7296045984491002</v>
       </c>
       <c r="G20">
-        <v>0.6181424554971215</v>
+        <v>0.4723121617012396</v>
       </c>
       <c r="H20">
-        <v>0.7228634471084376</v>
+        <v>0.3265315589394646</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.192814160605451</v>
+        <v>0.0624684730254863</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3907810958277196</v>
+        <v>0.4378562744384311</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.23095540398225</v>
+        <v>0.8045958752933444</v>
       </c>
       <c r="O20">
-        <v>2.666637724059427</v>
+        <v>1.635286780866522</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.64394501969133</v>
+        <v>3.977004474617729</v>
       </c>
       <c r="C21">
-        <v>0.2718180341483958</v>
+        <v>0.4020644259227311</v>
       </c>
       <c r="D21">
-        <v>0.2278924421232063</v>
+        <v>0.1483538233160715</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.194036968020342</v>
+        <v>0.7803433185169837</v>
       </c>
       <c r="G21">
-        <v>0.6216685482024928</v>
+        <v>0.5130829034368816</v>
       </c>
       <c r="H21">
-        <v>0.7201014707339226</v>
+        <v>0.3387152516703367</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1909426012853892</v>
+        <v>0.06076737019070677</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4029158076526045</v>
+        <v>0.4870713357251333</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.226391514357488</v>
+        <v>0.801772086277154</v>
       </c>
       <c r="O21">
-        <v>2.668643788786085</v>
+        <v>1.747662028872156</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.729971989852402</v>
+        <v>4.269618119208246</v>
       </c>
       <c r="C22">
-        <v>0.2779835994066673</v>
+        <v>0.4209042084198984</v>
       </c>
       <c r="D22">
-        <v>0.2290596372161389</v>
+        <v>0.155351977112403</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.196051095813601</v>
+        <v>0.8150552689401422</v>
       </c>
       <c r="G22">
-        <v>0.6243439047073025</v>
+        <v>0.5409553263289268</v>
       </c>
       <c r="H22">
-        <v>0.7185859150801264</v>
+        <v>0.3473628292925355</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1897848363113255</v>
+        <v>0.05978018361262727</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4109527162834041</v>
+        <v>0.5195404068058593</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.223807185508264</v>
+        <v>0.8010212661043141</v>
       </c>
       <c r="O22">
-        <v>2.671338553702242</v>
+        <v>1.825130976599922</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.684050570441002</v>
+        <v>4.113338122726702</v>
       </c>
       <c r="C23">
-        <v>0.2746941792368034</v>
+        <v>0.4108471057943461</v>
       </c>
       <c r="D23">
-        <v>0.2284308579783811</v>
+        <v>0.1516052726515795</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.194924147436126</v>
+        <v>0.7963801442709126</v>
       </c>
       <c r="G23">
-        <v>0.6228820606029188</v>
+        <v>0.5259611632201455</v>
       </c>
       <c r="H23">
-        <v>0.7193683165391462</v>
+        <v>0.3426821327506957</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1903967756128324</v>
+        <v>0.06029533205586901</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4066536227943942</v>
+        <v>0.5021814701301679</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.225150083924589</v>
+        <v>0.801318412717194</v>
       </c>
       <c r="O23">
-        <v>2.669773680499105</v>
+        <v>1.783397925056562</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.510299902370377</v>
+        <v>3.523613762200739</v>
       </c>
       <c r="C24">
-        <v>0.2622093914687014</v>
+        <v>0.3727949302494977</v>
       </c>
       <c r="D24">
-        <v>0.2261778171277058</v>
+        <v>0.1376634637049534</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.191798033308004</v>
+        <v>0.7288000188838595</v>
       </c>
       <c r="G24">
-        <v>0.6180910788779954</v>
+        <v>0.4716652043295539</v>
       </c>
       <c r="H24">
-        <v>0.7229134818832534</v>
+        <v>0.3263434063176192</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1928458551813073</v>
+        <v>0.06249830747880836</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3905845684561626</v>
+        <v>0.4370566353920964</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.231036736235154</v>
+        <v>0.8046597659145931</v>
       </c>
       <c r="O24">
-        <v>2.666628291099357</v>
+        <v>1.633514085296525</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.323314254206025</v>
+        <v>2.891036495023741</v>
       </c>
       <c r="C25">
-        <v>0.2486920509061861</v>
+        <v>0.3317974028454103</v>
       </c>
       <c r="D25">
-        <v>0.2240242338011527</v>
+        <v>0.1231075698569057</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.190867625631583</v>
+        <v>0.6619180819840409</v>
       </c>
       <c r="G25">
-        <v>0.6145130122811224</v>
+        <v>0.4177992573071663</v>
       </c>
       <c r="H25">
-        <v>0.7279822179216353</v>
+        <v>0.3114059261667137</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1957687231768919</v>
+        <v>0.06537757074385731</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3737144018835181</v>
+        <v>0.3679483176119476</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.239102301335336</v>
+        <v>0.8126370479811982</v>
       </c>
       <c r="O25">
-        <v>2.669174022939785</v>
+        <v>1.487393754363808</v>
       </c>
     </row>
   </sheetData>
